--- a/data/row-oriented.xlsx
+++ b/data/row-oriented.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
-  <workbookPr showInkAnnotation="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/starver/code/makara/xlsxToJson/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="2700" windowWidth="18020" windowHeight="19780" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Another Sheet" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>firstName</t>
   </si>
@@ -69,16 +66,54 @@
   </si>
   <si>
     <t>Vail</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Irwin</t>
+  </si>
+  <si>
+    <t>123 Fake Street</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>NY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,13 +136,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -163,7 +207,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,7 +242,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -385,13 +429,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -411,7 +455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -431,7 +475,7 @@
         <v>81615</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -453,5 +497,172 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>99999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>81615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>81657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>99999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/row-oriented.xlsx
+++ b/data/row-oriented.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/starver/code/makara/xlsxToJson/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matteo/WebStormProjects/excel-as-json/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="2700" windowWidth="18020" windowHeight="19780" tabRatio="500"/>
+    <workbookView xWindow="7580" yWindow="460" windowWidth="18020" windowHeight="15460" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>firstName</t>
   </si>
@@ -69,15 +74,101 @@
   </si>
   <si>
     <t>Vail</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Italiano</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>LANGUAGE.LONG</t>
+  </si>
+  <si>
+    <t>LANGUAGE.SHORT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Carattere corpo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -101,14 +192,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -385,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,4 +562,148 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2">
+        <v>81618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>81667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/row-oriented.xlsx
+++ b/data/row-oriented.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/starver/code/makara/xlsxToJson/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Matteo/WebStormProjects/excel-as-json/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="2700" windowWidth="18020" windowHeight="19780" tabRatio="500"/>
+    <workbookView xWindow="9420" yWindow="460" windowWidth="18020" windowHeight="15460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Another Sheet" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>firstName</t>
   </si>
@@ -69,16 +75,124 @@
   </si>
   <si>
     <t>Vail</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Italiano</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>Español</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>LANGUAGE.LONG</t>
+  </si>
+  <si>
+    <t>LANGUAGE.SHORT</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Irwin</t>
+  </si>
+  <si>
+    <t>123 Fake Street</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>NY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Carattere corpo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,14 +215,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -385,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,4 +586,223 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2">
+        <v>99999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6">
+        <v>81615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6">
+        <v>81657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4">
+        <v>99999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>